--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-8.386243890559252</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.146377125188815</v>
+        <v>-9.168201994025972</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.743177375700709</v>
+        <v>-1.715120570710891</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.852412466129661</v>
+        <v>-7.80984938959121</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.751078491103332</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.792717931879148</v>
+        <v>-9.813875093271378</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.748165543083407</v>
+        <v>-1.723656752163696</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.687331619598337</v>
+        <v>-7.650646987035821</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.996685765501649</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.34914080265251</v>
+        <v>-10.36428859704038</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.749487865670421</v>
+        <v>-1.72353892143812</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.490894707761079</v>
+        <v>-7.449444476964175</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.183508970158188</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.99294170259154</v>
+        <v>-11.00833825073341</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.747628758666896</v>
+        <v>-1.724062613551789</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.06242291265991</v>
+        <v>-7.025947756942862</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.323172843102368</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.61875377842605</v>
+        <v>-11.63015717420119</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.801019169655455</v>
+        <v>-1.775122594634521</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.81120780573287</v>
+        <v>-6.776264449448304</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.445792736856385</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.41383623770123</v>
+        <v>-12.42682380212023</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.591372124250896</v>
+        <v>-1.566234902794782</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.431229900357454</v>
+        <v>-6.395108236817133</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.573975296628991</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05594823057369</v>
+        <v>-13.06778367234261</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.496033974957446</v>
+        <v>-1.472768952807699</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.778316757640575</v>
+        <v>-5.739930125708635</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.734910443080764</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.672098186911</v>
+        <v>-13.68385507486287</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.386503769383566</v>
+        <v>-1.360148963763172</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.370242770366816</v>
+        <v>-5.3373549056284</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.94644397606218</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.31003373517694</v>
+        <v>-14.3176141785223</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.308617659778138</v>
+        <v>-1.286072714284686</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.978062838742912</v>
+        <v>-4.941744790659963</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.225598879012118</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.15323040739547</v>
+        <v>-15.15825785168669</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.188757627262136</v>
+        <v>-1.168124157983575</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.414530847526496</v>
+        <v>-4.381577521273872</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5854952904307463</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.9280590741745</v>
+        <v>-15.93164636515314</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9514334536501672</v>
+        <v>-0.9283910006487293</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.884109290196807</v>
+        <v>-3.85462542419724</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03587742809938684</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.69372312896433</v>
+        <v>-16.69410280574673</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8594993030955668</v>
+        <v>-0.8343228047309275</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.41037740417179</v>
+        <v>-3.385004521264525</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4081964207209134</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.41847373737376</v>
+        <v>-17.41831662973965</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6799645542269772</v>
+        <v>-0.6557830708783091</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.841451384184584</v>
+        <v>-2.820385868912247</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7401446011902078</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.18989840541394</v>
+        <v>-18.18907359033491</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.494053853874467</v>
+        <v>-0.4685107710302595</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.559286073339704</v>
+        <v>-2.536623297120676</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9579199687028372</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.05854651435678</v>
+        <v>-19.05634700747937</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3302953299301573</v>
+        <v>-0.3051581084740433</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.997796481366598</v>
+        <v>-1.973300782749729</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.062843856619412</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.88583603862261</v>
+        <v>-19.88773442253466</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08652974332005967</v>
+        <v>-0.06492744363121165</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.724835059419451</v>
+        <v>-1.703507698090279</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.060526232638353</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.63156051618448</v>
+        <v>-20.62778993296607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02593313809036726</v>
+        <v>0.04225923973399967</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.286059621981844</v>
+        <v>-1.265753460274327</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9580918394311154</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.3583142469287</v>
+        <v>-21.35470077134438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2979780988385932</v>
+        <v>0.3177998453409665</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9056889475211763</v>
+        <v>-0.8835105865072923</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7649376716133972</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.99305527330126</v>
+        <v>-21.98540936844169</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4477540433479394</v>
+        <v>0.4658476058752049</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6745574331533443</v>
+        <v>-0.655455763307266</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4958782352131692</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.61107742894494</v>
+        <v>-22.60408613922746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6349739739846222</v>
+        <v>0.6517321216220316</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3397086956733584</v>
+        <v>-0.3211307179409491</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.1633360935874698</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.0659040296665</v>
+        <v>-23.05942333975985</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8057630645549388</v>
+        <v>0.8210025050627079</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2221790930631835</v>
+        <v>-0.199830532112357</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.2193172324449983</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.50754668142645</v>
+        <v>-23.49801548495767</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8894490643192519</v>
+        <v>0.904780150946913</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.08316502148973606</v>
+        <v>-0.05665310823524078</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.6395709809550475</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.99283907086071</v>
+        <v>-23.98431598171075</v>
       </c>
       <c r="F24" t="n">
-        <v>1.035402056398814</v>
+        <v>1.048245605486547</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1146258252184038</v>
+        <v>-0.09277477177556299</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.085626120946097</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.24088584050005</v>
+        <v>-24.23194379765915</v>
       </c>
       <c r="F25" t="n">
-        <v>1.089447082529459</v>
+        <v>1.101727662594998</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07275121305237968</v>
+        <v>0.09910601867277426</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.545473567555858</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.51095386351918</v>
+        <v>-24.50028363670317</v>
       </c>
       <c r="F26" t="n">
-        <v>1.226170001105604</v>
+        <v>1.237547212275065</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02891051851362324</v>
+        <v>-0.002176036110818607</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.007726573771612</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.5601285529927</v>
+        <v>-24.55335983242353</v>
       </c>
       <c r="F27" t="n">
-        <v>1.194290243686002</v>
+        <v>1.205497254918519</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2291572904778235</v>
+        <v>-0.200118562774875</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.465472389941753</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.64442989099057</v>
+        <v>-24.63585443262924</v>
       </c>
       <c r="F28" t="n">
-        <v>1.123303777678163</v>
+        <v>1.134707173453306</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5824530826618014</v>
+        <v>-0.5486225721187813</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.911618103716341</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.45804786773576</v>
+        <v>-24.44835956363288</v>
       </c>
       <c r="F29" t="n">
-        <v>1.135322511686867</v>
+        <v>1.149540752572982</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6287998347215117</v>
+        <v>-0.5974437694155778</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.339106243807297</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.19702662598027</v>
+        <v>-24.18773109096264</v>
       </c>
       <c r="F30" t="n">
-        <v>1.022506138099714</v>
+        <v>1.039172639617231</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9463929170561026</v>
+        <v>-0.9117768683425789</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.74040911316277</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.97656533842844</v>
+        <v>-23.96641880372611</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9529336407987815</v>
+        <v>0.9692859270480974</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.156917146751058</v>
+        <v>-1.125521804536599</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.106378119065361</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.62968477463691</v>
+        <v>-23.62105694706421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9304541568195379</v>
+        <v>0.9478538272961918</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.403628501500544</v>
+        <v>-1.370635898339394</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.430603064420317</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.29731048239401</v>
+        <v>-23.29001806971117</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8929839860865179</v>
+        <v>0.9118892713899703</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.680936567991144</v>
+        <v>-1.647341718899275</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.70762968100478</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.85024761725759</v>
+        <v>-22.84029746709788</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8317643779986068</v>
+        <v>0.8504601864565916</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.915485173400666</v>
+        <v>-1.886380984183509</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.931928661949742</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.48620304444056</v>
+        <v>-22.47922484702592</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7488770087076391</v>
+        <v>0.7712517542641488</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.18637801149882</v>
+        <v>-2.161921589790476</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.099415356941441</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.916727147734</v>
+        <v>-21.90943473505116</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7961271296634284</v>
+        <v>0.8186851674597224</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.479121903039815</v>
+        <v>-2.458252772310104</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.20744778249149</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.47054146688797</v>
+        <v>-21.46066987054531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8130947541463054</v>
+        <v>0.836294314781844</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.662479604338189</v>
+        <v>-2.642553119413082</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.253291711524422</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98485630836846</v>
+        <v>-20.97872911063853</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9091006108846826</v>
+        <v>0.9310302181445738</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.794646401525414</v>
+        <v>-2.774156947578112</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.239392255370421</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.49863436543244</v>
+        <v>-20.49551839735611</v>
       </c>
       <c r="F39" t="n">
-        <v>0.927914250068243</v>
+        <v>0.9499878726593931</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.848468858507749</v>
+        <v>-2.829170804119045</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.16946317546423</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.84234340858239</v>
+        <v>-19.83793130252473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.948992857643422</v>
+        <v>0.9708570033891045</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.965540230518464</v>
+        <v>-2.947106268117313</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.048146015683198</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.30699914538421</v>
+        <v>-19.29934014822181</v>
       </c>
       <c r="F41" t="n">
-        <v>1.021196907815541</v>
+        <v>1.044736868324965</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.11971518878263</v>
+        <v>-3.102760656602595</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.885339164672845</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.54616615034299</v>
+        <v>-18.54039244478979</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9985865008078804</v>
+        <v>1.021118353998491</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.334206386238628</v>
+        <v>-3.318613453554133</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.689833487678474</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.02904637270049</v>
+        <v>-18.02320720563308</v>
       </c>
       <c r="F43" t="n">
-        <v>1.100641001459135</v>
+        <v>1.122531331810501</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.373745140820641</v>
+        <v>-3.357955823593519</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.470883000088372</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.4665879503171</v>
+        <v>-17.46135102918041</v>
       </c>
       <c r="F44" t="n">
-        <v>1.058981293816763</v>
+        <v>1.079719501518057</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.525354007727829</v>
+        <v>-3.508988629175671</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.238358920532821</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.82389989611961</v>
+        <v>-16.81740611391011</v>
       </c>
       <c r="F45" t="n">
-        <v>1.073736319119388</v>
+        <v>1.094605449849099</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.699376897100052</v>
+        <v>-3.685067010094045</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.99981534241948</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.34883259520474</v>
+        <v>-16.34068918283718</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9087209341022726</v>
+        <v>0.925191051077164</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.857806853787779</v>
+        <v>-3.847188996183139</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.762234165003122</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.74844577148886</v>
+        <v>-15.74472755748181</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9836874601739961</v>
+        <v>1.000995484530758</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.840315537191233</v>
+        <v>-3.8276290957376</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.533162524761516</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.11405823729302</v>
+        <v>-15.10850710088813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.961849499033997</v>
+        <v>0.9809511688800753</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.989004820564716</v>
+        <v>-3.973280964851803</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.315376765083759</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.60385119555096</v>
+        <v>-14.5999104123956</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8858879579463024</v>
+        <v>0.9016641828705823</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.0920412439291</v>
+        <v>-4.079760663863561</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.111867709877922</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.08318340383836</v>
+        <v>-14.08262043481616</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8807819598380292</v>
+        <v>0.8948300007872012</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.175269013093953</v>
+        <v>-4.160592541608378</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.923751649596117</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.60249950500438</v>
+        <v>-13.60785425686665</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9895004426357225</v>
+        <v>1.005970559610614</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.273199438350064</v>
+        <v>-4.256480567621179</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.749458304278645</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.97680525989545</v>
+        <v>-12.97907022828707</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8832825896807989</v>
+        <v>0.8963618002196831</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.381315675217038</v>
+        <v>-4.362502036033477</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.589885135327083</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.56925496473536</v>
+        <v>-12.57471445502036</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8950525699355105</v>
+        <v>0.9072284115783158</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.574230757589871</v>
+        <v>-4.555953902822822</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.443877620111839</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.94810374871251</v>
+        <v>-11.95021160947003</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8688286873435332</v>
+        <v>0.8814627595857989</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.747756139454109</v>
+        <v>-4.729518561595584</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.309147963319103</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.56355662964533</v>
+        <v>-11.56701299759555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8270511489755854</v>
+        <v>0.8417014358554769</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.965742981768847</v>
+        <v>-4.945332081638596</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.184766910869547</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.1831335859733</v>
+        <v>-11.19316228995006</v>
       </c>
       <c r="F56" t="n">
-        <v>0.752555945806164</v>
+        <v>0.7670491250519548</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.172130043765817</v>
+        <v>-5.151863158966825</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.069984231875088</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.62856982220347</v>
+        <v>-10.63954117198483</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7323545225213808</v>
+        <v>0.7473321169723154</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.251089722204267</v>
+        <v>-5.230259868383081</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.964165710666567</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.39056484884373</v>
+        <v>-10.40533296644919</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6520332445873913</v>
+        <v>0.6684509923509158</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.397828252454333</v>
+        <v>-5.379865612955484</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.870169967844864</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.882884621550115</v>
+        <v>-9.897194508556122</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6794485267379656</v>
+        <v>0.6943999365832169</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.61496409508436</v>
+        <v>-5.597420409276447</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.788548004540171</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.745467810923358</v>
+        <v>-9.765773972630877</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6653219319717433</v>
+        <v>0.6781131118481096</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.673395042666983</v>
+        <v>-5.657854479193854</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.720456615291336</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.367165720311684</v>
+        <v>-9.391137726814884</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7016923492660583</v>
+        <v>0.7141562215713815</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.685007915287594</v>
+        <v>-5.666233553012558</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.66755190780967</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.092593945115004</v>
+        <v>-9.120938780767341</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6636068402994771</v>
+        <v>0.6754946512797644</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.781118510448705</v>
+        <v>-5.758521195743886</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.630056304160086</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.777043262023723</v>
+        <v>-8.8011330992525</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6246703316481839</v>
+        <v>0.6356024045210251</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.773027467292518</v>
+        <v>-5.756465704197735</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.608760052207965</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.472882882404743</v>
+        <v>-8.499578087899023</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5223932618486198</v>
+        <v>0.5340192267720725</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.704279785070614</v>
+        <v>-5.689943713458924</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.603920962279737</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.356714879290108</v>
+        <v>-8.383842130778165</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3848717127991291</v>
+        <v>0.3922164946933375</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.725279838828744</v>
+        <v>-5.705903230622988</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.613227022737599</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.159387690859612</v>
+        <v>-8.186187634776626</v>
       </c>
       <c r="F66" t="n">
-        <v>0.339572344966757</v>
+        <v>0.349129726041217</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.712292274409752</v>
+        <v>-5.690978005383421</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.635861276313906</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.028294462505409</v>
+        <v>-8.058236559104436</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2474679944752141</v>
+        <v>0.2571039293667244</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.665893153138674</v>
+        <v>-5.644749084049287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.670102543616075</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.8865310073352</v>
+        <v>-7.914993673713112</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1918649843064034</v>
+        <v>0.2022733650655757</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.614584418301949</v>
+        <v>-5.594474641137058</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.713519912005654</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.821894308205597</v>
+        <v>-7.847136268084445</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1843238178695692</v>
+        <v>0.1962116288498565</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.52826686566645</v>
+        <v>-5.509139011214688</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.765301918381025</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.83078398183513</v>
+        <v>-7.856091403228186</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07891768769083266</v>
+        <v>0.09212782125813426</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.425007873153756</v>
+        <v>-5.406888126020807</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.823203408919676</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.89722741875689</v>
+        <v>-7.924655793210306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0803971179119477</v>
+        <v>0.09448443576964495</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.255410182142037</v>
+        <v>-5.239411388069447</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.884826211275158</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.91490202759322</v>
+        <v>-7.941086633276672</v>
       </c>
       <c r="F72" t="n">
-        <v>0.003453654111123603</v>
+        <v>0.01519744976015189</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.169760336951465</v>
+        <v>-5.152478497200386</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.949009517733879</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.12334458113634</v>
+        <v>-8.148547264106663</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03425217807304747</v>
+        <v>-0.02232509018423503</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.901773990084174</v>
+        <v>-4.884439781121729</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.013976090869075</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.253639179017199</v>
+        <v>-8.280465307539895</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.08414694420286552</v>
+        <v>-0.07524417827049179</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.769816669742417</v>
+        <v>-4.755100921348316</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.078061987939138</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.590438669620601</v>
+        <v>-8.616583998395528</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1695873125479699</v>
+        <v>-0.1566783019460279</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.523694468620809</v>
+        <v>-4.510065381362572</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.140422746051454</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.850844573142533</v>
+        <v>-8.875903240781597</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1591527471831142</v>
+        <v>-0.1477886283164959</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.227873885912008</v>
+        <v>-4.220790950074634</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.198590089300541</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.36630162832413</v>
+        <v>-9.390548573187006</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2330457044218161</v>
+        <v>-0.2221529084575</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.008067213502269</v>
+        <v>-3.994595233878133</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.252298468744819</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.819871367972889</v>
+        <v>-9.845637019965405</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1833996920459909</v>
+        <v>-0.1706608813809914</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.91462744812087</v>
+        <v>-3.900343745720547</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.3014928857513</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.25983820496909</v>
+        <v>-10.28765934850776</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2506024825325707</v>
+        <v>-0.2389372407005928</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.76482531900584</v>
+        <v>-3.75033213976005</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.346041692715589</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.85775058344788</v>
+        <v>-10.88206298982497</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3048177086001584</v>
+        <v>-0.2904423600799432</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.43631325610125</v>
+        <v>-3.421636784615675</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.386613642760778</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.54181031462523</v>
+        <v>-11.56478730611246</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3222435636824958</v>
+        <v>-0.3082609842475323</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.277817837899314</v>
+        <v>-3.26489573499453</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.42357275984571</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.38268964924077</v>
+        <v>-12.40567973303084</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3887786467241477</v>
+        <v>-0.3748222518948677</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.938268963699148</v>
+        <v>-2.926119306662027</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.456065508914677</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.29922940197864</v>
+        <v>-13.32038656337087</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3682630081711629</v>
+        <v>-0.3530759368747607</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.789553495719982</v>
+        <v>-2.774222409092321</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.485676168026458</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.25241451037051</v>
+        <v>-14.26850495056299</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4219283575193981</v>
+        <v>-0.4077493935418087</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.515688704876756</v>
+        <v>-2.501182433328124</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.514001977959165</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.47367761174956</v>
+        <v>-15.49147005131146</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4764970757637123</v>
+        <v>-0.4590057591671663</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.317589070578599</v>
+        <v>-2.30424801398288</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.54262179158716</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.53613107965847</v>
+        <v>-16.55401516534027</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5720839788111544</v>
+        <v>-0.554461739186191</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.079544820310335</v>
+        <v>-2.062276072862099</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.576072175181918</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.71265778222734</v>
+        <v>-17.72666654626799</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.501987789396553</v>
+        <v>-0.4851118110335681</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.018547781370734</v>
+        <v>-2.00592680143131</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.617183105054028</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.08592251959883</v>
+        <v>-19.09787579209333</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6570268396482731</v>
+        <v>-0.6400592151653961</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.988841346222857</v>
+        <v>-1.974112505525916</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.670233533154901</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.62103430469974</v>
+        <v>-20.62788157908596</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6391427539664752</v>
+        <v>-0.622855929231368</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.975408643507246</v>
+        <v>-1.960836910444405</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.740782140366543</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.25799111360643</v>
+        <v>-22.26393501909658</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6800300157411858</v>
+        <v>-0.6627481759901074</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.987610669755735</v>
+        <v>-1.970957260541059</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.833142383785186</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.96825172612395</v>
+        <v>-23.97403852397999</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.821060301952259</v>
+        <v>-0.8067504149462524</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.027764762571309</v>
+        <v>-2.01070549196854</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.951602718167481</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.70573123624941</v>
+        <v>-25.71251304912143</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8695934685865375</v>
+        <v>-0.8542885665645598</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.093239369082781</v>
+        <v>-2.072239315324652</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.099929701342676</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.73050823993372</v>
+        <v>-27.73658306845228</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.043145035056458</v>
+        <v>-1.027093871772502</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.285146344136802</v>
+        <v>-2.26677784324986</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.276538653237211</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.78099852639917</v>
+        <v>-29.78977036930313</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.071162563137752</v>
+        <v>-1.054273492471925</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.349704489449353</v>
+        <v>-2.335172033295037</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.483142211978268</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.98270491068656</v>
+        <v>-31.98727412437832</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.310817166655548</v>
+        <v>-1.291610758386736</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.562179472267725</v>
+        <v>-2.547660108416251</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.71987620944427</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.24357541151571</v>
+        <v>-34.25136533170654</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.438205273305542</v>
+        <v>-1.420281910715219</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.779537884046062</v>
+        <v>-2.764102058995666</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.980230352585072</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.45705177605781</v>
+        <v>-36.46416089650087</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.609164563812801</v>
+        <v>-1.594540461538593</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.867858559016346</v>
+        <v>-2.849372227403828</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.265312692089218</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.79139628043472</v>
+        <v>-38.79761512428455</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.877569864371027</v>
+        <v>-1.862971946702503</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.125999494146658</v>
+        <v>-3.107604808654033</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.560531286247777</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.09681988783427</v>
+        <v>-41.10598449982348</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.891683366834408</v>
+        <v>-1.878604156295524</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.365483897727512</v>
+        <v>-3.354970778545606</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.868616228164301</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.42950166975029</v>
+        <v>-43.4379462050832</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.226126242926301</v>
+        <v>-2.213177955415834</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.433917364681214</v>
+        <v>-3.417159217043805</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.164145059368732</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.7642520355153</v>
+        <v>-45.77048397166796</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.26791687359709</v>
+        <v>-2.256369462490688</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.693302068581491</v>
+        <v>-3.679856273563038</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.469487347275722</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.29881712725073</v>
+        <v>-48.3096968309122</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.532054083428914</v>
+        <v>-2.524552193900605</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.731492315970806</v>
+        <v>-3.718295274706346</v>
       </c>
     </row>
   </sheetData>
